--- a/tables/change_scores.xlsx
+++ b/tables/change_scores.xlsx
@@ -104,25 +104,25 @@
     <t xml:space="preserve">means_sd_pre_post</t>
   </si>
   <si>
-    <t xml:space="preserve">82</t>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">means_se_pre_post</t>
   </si>
   <si>
-    <t xml:space="preserve">65</t>
+    <t xml:space="preserve">38</t>
   </si>
   <si>
     <t xml:space="preserve">means_ci_pre_post</t>
   </si>
   <si>
-    <t xml:space="preserve">57</t>
+    <t xml:space="preserve">79</t>
   </si>
   <si>
     <t xml:space="preserve">means_change</t>
   </si>
   <si>
-    <t xml:space="preserve">26</t>
+    <t xml:space="preserve">93</t>
   </si>
   <si>
     <t xml:space="preserve">= 8.4, mean_change_sd_exp = 9.13,</t>
@@ -558,25 +558,25 @@
       </c>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>102</v>
+        <v>105.8</v>
       </c>
       <c r="E2" t="n">
         <v>101.2</v>
       </c>
       <c r="F2" t="n">
-        <v>107.2</v>
+        <v>101.1</v>
       </c>
       <c r="G2" t="n">
         <v>98.9</v>
       </c>
       <c r="H2" t="n">
-        <v>15.37</v>
+        <v>15.88</v>
       </c>
       <c r="I2" t="n">
         <v>15.87</v>
       </c>
       <c r="J2" t="n">
-        <v>13.2</v>
+        <v>13.96</v>
       </c>
       <c r="K2" t="n">
         <v>13.87</v>
@@ -596,16 +596,16 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>0.045</v>
+        <v>0.016</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.009</v>
+        <v>-0.054</v>
       </c>
       <c r="AB2" t="s">
         <v>30</v>
       </c>
       <c r="AC2" t="n">
-        <v>83</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -617,13 +617,13 @@
       </c>
       <c r="C3"/>
       <c r="D3" t="n">
-        <v>6.12</v>
+        <v>6.15</v>
       </c>
       <c r="E3" t="n">
         <v>5.94</v>
       </c>
       <c r="F3" t="n">
-        <v>5.15</v>
+        <v>5.8</v>
       </c>
       <c r="G3" t="n">
         <v>5.81</v>
@@ -633,13 +633,13 @@
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>0.148</v>
+        <v>0.218</v>
       </c>
       <c r="M3" t="n">
         <v>0.13</v>
       </c>
       <c r="N3" t="n">
-        <v>0.092</v>
+        <v>0.221</v>
       </c>
       <c r="O3" t="n">
         <v>0.13</v>
@@ -655,16 +655,16 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3" t="n">
-        <v>0.592</v>
+        <v>0.669</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.612</v>
+        <v>0.626</v>
       </c>
       <c r="AB3" t="s">
         <v>32</v>
       </c>
       <c r="AC3" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -682,7 +682,7 @@
         <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>60.4</v>
+        <v>61.7</v>
       </c>
       <c r="G4" t="n">
         <v>60</v>
@@ -718,16 +718,16 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4" t="n">
-        <v>0.038</v>
+        <v>0.014</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.098</v>
+        <v>0.1</v>
       </c>
       <c r="AB4" t="s">
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -757,28 +757,28 @@
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5" t="n">
-        <v>0.42</v>
+        <v>-3.39</v>
       </c>
       <c r="W5" t="n">
-        <v>3.51</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>1.32</v>
+        <v>2.87</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.81</v>
+        <v>2.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.166</v>
+        <v>0.501</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.229</v>
+        <v>0.519</v>
       </c>
       <c r="AB5" t="s">
         <v>36</v>
       </c>
       <c r="AC5" t="n">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">

--- a/tables/change_scores.xlsx
+++ b/tables/change_scores.xlsx
@@ -485,16 +485,16 @@
         <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9</v>
+        <v>-2.38</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.35</v>
+        <v>3.29</v>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.02</v>
       </c>
       <c r="H2" t="n">
-        <v>2.34</v>
+        <v>1.02</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -505,10 +505,10 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="R2" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -525,18 +525,18 @@
         <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.89</v>
+        <v>2.75</v>
       </c>
       <c r="F3" t="n">
-        <v>2.85</v>
+        <v>-1.18</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="n">
-        <v>1.42</v>
+        <v>2.44</v>
       </c>
       <c r="J3" t="n">
-        <v>1.73</v>
+        <v>2.38</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -545,10 +545,10 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="R3" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -565,34 +565,34 @@
         <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>4.39</v>
+        <v>3.37</v>
       </c>
       <c r="F4" t="n">
-        <v>2.75</v>
+        <v>-4.26</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="n">
-        <v>1.89</v>
+        <v>0.87</v>
       </c>
       <c r="L4" t="n">
-        <v>6.89</v>
+        <v>5.87</v>
       </c>
       <c r="M4" t="n">
-        <v>0.25</v>
+        <v>-6.76</v>
       </c>
       <c r="N4" t="n">
-        <v>5.25</v>
+        <v>-1.76</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>4.73</v>
+        <v>-3.03</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.77</v>
+        <v>4.88</v>
       </c>
       <c r="G5" t="n">
-        <v>2.18</v>
+        <v>1.81</v>
       </c>
       <c r="H5" t="n">
-        <v>1.68</v>
+        <v>1.1</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -627,16 +627,16 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="P5" t="n">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R5" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/tables/change_scores.xlsx
+++ b/tables/change_scores.xlsx
@@ -485,16 +485,16 @@
         <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.38</v>
+        <v>2.21</v>
       </c>
       <c r="F2" t="n">
-        <v>3.29</v>
+        <v>2.74</v>
       </c>
       <c r="G2" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>2.04</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -505,10 +505,10 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -525,18 +525,18 @@
         <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>2.75</v>
+        <v>-3.28</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.18</v>
+        <v>0.59</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="n">
-        <v>2.44</v>
+        <v>2.89</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>1.39</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -545,10 +545,10 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3" t="n">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="R3" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -565,34 +565,34 @@
         <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>3.37</v>
+        <v>2.89</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.26</v>
+        <v>-1.57</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="n">
-        <v>0.87</v>
+        <v>0.39</v>
       </c>
       <c r="L4" t="n">
-        <v>5.87</v>
+        <v>5.39</v>
       </c>
       <c r="M4" t="n">
-        <v>-6.76</v>
+        <v>-4.07</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.76</v>
+        <v>0.93</v>
       </c>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4" t="n">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="R4" t="n">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.03</v>
+        <v>-3.05</v>
       </c>
       <c r="F5" t="n">
-        <v>4.88</v>
+        <v>0.38</v>
       </c>
       <c r="G5" t="n">
-        <v>1.81</v>
+        <v>2.37</v>
       </c>
       <c r="H5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -627,16 +627,16 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5" t="n">
-        <v>0.92</v>
+        <v>0.36</v>
       </c>
       <c r="P5" t="n">
-        <v>0.63</v>
+        <v>0.05</v>
       </c>
       <c r="Q5" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="R5" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
